--- a/sites.xlsx
+++ b/sites.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">NOME</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">NovaOlinda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PedraBoca</t>
   </si>
 </sst>
 </file>
@@ -142,13 +145,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -168,16 +175,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,6 +316,17 @@
       </c>
       <c r="C12" s="0" t="n">
         <v>-38.04636</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>-6.465304</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>-35.677947</v>
       </c>
     </row>
   </sheetData>

--- a/sites.xlsx
+++ b/sites.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">NOME</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">PedraBoca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FazendaUFPB</t>
   </si>
 </sst>
 </file>
@@ -175,15 +178,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -327,6 +331,17 @@
       </c>
       <c r="C13" s="0" t="n">
         <v>-35.677947</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>-7.364567</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>-36.5328</v>
       </c>
     </row>
   </sheetData>

--- a/sites.xlsx
+++ b/sites.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">NOME</t>
   </si>
@@ -31,43 +31,40 @@
     <t xml:space="preserve">lon</t>
   </si>
   <si>
-    <t xml:space="preserve">MinaEscola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EngAvidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PaiMateus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AESA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pisabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APAonca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FazendaAlmas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BaduLoureiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NovaOlinda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PedraBoca</t>
+    <t xml:space="preserve">Mina Escola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estação de Bombeamento – Sousa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFP – Cajazeiras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Açude Eng Avidos/Cajazeiras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFPB – Princesa Isabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Açude de Nova Olinda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPPN Badu Loureiro – Catingueira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDSA – Sumé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazenda Almas – Sao José dos Cordeiros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APA da onca – São João do Tigre</t>
   </si>
   <si>
     <t xml:space="preserve">FazendaUFPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazenda Pai Mateus – Cabaceiras</t>
   </si>
 </sst>
 </file>
@@ -148,17 +145,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -178,16 +171,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -212,15 +205,15 @@
         <v>-36.91567</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>-6.870113</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>-38.554798</v>
+      <c r="B3" s="0" t="n">
+        <v>-6.825868</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>-38.120524</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -228,10 +221,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>-6.978258</v>
+        <v>-6.870113</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>-38.451844</v>
+        <v>-38.554798</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -239,21 +232,21 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>-7.391086</v>
+        <v>-6.978258</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>-36.319304</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-38.451844</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>-7.658964</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>-36.895358</v>
+      <c r="B6" s="0" t="n">
+        <v>-7.757563</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-38.018809</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -261,10 +254,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-6.825868</v>
+        <v>-7.513801</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-38.120524</v>
+        <v>-38.04636</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -272,21 +265,21 @@
         <v>9</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-7.757563</v>
+        <v>-7.166776</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-38.018809</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-37.689329</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>-8.077222</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>-36.855</v>
+      <c r="B9" s="1" t="n">
+        <v>-7.658964</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>-36.895358</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -305,10 +298,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>-7.166776</v>
+        <v>-8.077222</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>-37.689329</v>
+        <v>-36.855</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -316,32 +309,21 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-7.513801</v>
+        <v>-7.364567</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-38.04636</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>-36.5328</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>-6.465304</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>-35.677947</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>-7.364567</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>-36.5328</v>
+      <c r="B13" s="1" t="n">
+        <v>-7.391086</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>-36.319304</v>
       </c>
     </row>
   </sheetData>
